--- a/biology/Zoologie/Hespérie_de_l'herbe-au-vent/Hespérie_de_l'herbe-au-vent.xlsx
+++ b/biology/Zoologie/Hespérie_de_l'herbe-au-vent/Hespérie_de_l'herbe-au-vent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_l%27herbe-au-vent</t>
+          <t>Hespérie_de_l'herbe-au-vent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muschampia proto
 L’Hespérie de l'herbe-au-vent (Muschampia proto) est une espèce de lépidoptères de la famille des Hesperiidae et de la sous-famille des Pyrginae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_l%27herbe-au-vent</t>
+          <t>Hespérie_de_l'herbe-au-vent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Muschampia proto a été décrite par Ferdinand Ochsenheimer en 1808.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_l%27herbe-au-vent</t>
+          <t>Hespérie_de_l'herbe-au-vent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago est de petite taille, avec une longueur de l'aile antérieure (LAA) de 14 à 15 mm.
 Le dessus des ailes est gris-brun à taches blanches.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_l%27herbe-au-vent</t>
+          <t>Hespérie_de_l'herbe-au-vent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Période de vol : d'avril à juillet, parfois août.
 Habitat : Lieux incultes.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_l%27herbe-au-vent</t>
+          <t>Hespérie_de_l'herbe-au-vent</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Muschampia proto est présente dans le Sud de l'Europe, en Afrique du Nord et en Asie mineure.
 </t>
